--- a/web/protect-child-ig/StructureDefinition-variant-annotation-variant-occurrence-ref.xlsx
+++ b/web/protect-child-ig/StructureDefinition-variant-annotation-variant-occurrence-ref.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T16:44:49+01:00</t>
+    <t>2025-12-10T09:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/web/protect-child-ig/StructureDefinition-variant-annotation-variant-occurrence-ref.xlsx
+++ b/web/protect-child-ig/StructureDefinition-variant-annotation-variant-occurrence-ref.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T09:07:26+01:00</t>
+    <t>2025-12-10T13:58:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/web/protect-child-ig/StructureDefinition-variant-annotation-variant-occurrence-ref.xlsx
+++ b/web/protect-child-ig/StructureDefinition-variant-annotation-variant-occurrence-ref.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T13:58:21+01:00</t>
+    <t>2025-12-10T14:43:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
